--- a/target/classes/score-table/Results.xlsx
+++ b/target/classes/score-table/Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>№</t>
   </si>
@@ -21,6 +21,12 @@
   </si>
   <si>
     <t>Количество баллов</t>
+  </si>
+  <si>
+    <t>kitAna</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -65,7 +71,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -82,6 +88,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>4911.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>4093.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/target/classes/score-table/Results.xlsx
+++ b/target/classes/score-table/Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>№</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t>Количество баллов</t>
+  </si>
+  <si>
+    <t>123</t>
   </si>
   <si>
     <t>kitAna</t>
@@ -71,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -96,7 +99,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>4911.0</v>
+        <v>6389.0</v>
       </c>
     </row>
     <row r="3">
@@ -107,6 +110,17 @@
         <v>4</v>
       </c>
       <c r="C3" t="n" s="0">
+        <v>4911.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n" s="0">
         <v>4093.0</v>
       </c>
     </row>

--- a/target/classes/score-table/Results.xlsx
+++ b/target/classes/score-table/Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>№</t>
   </si>
@@ -21,15 +21,6 @@
   </si>
   <si>
     <t>Количество баллов</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>kitAna</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
 </sst>
 </file>
@@ -74,7 +65,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -91,39 +82,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>6389.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>4911.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>4093.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/target/classes/score-table/Results.xlsx
+++ b/target/classes/score-table/Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>№</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t>Количество баллов</t>
+  </si>
+  <si>
+    <t>123</t>
   </si>
 </sst>
 </file>
@@ -65,7 +68,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -82,6 +85,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>420853.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/target/classes/score-table/Results.xlsx
+++ b/target/classes/score-table/Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>№</t>
   </si>
@@ -21,9 +21,6 @@
   </si>
   <si>
     <t>Количество баллов</t>
-  </si>
-  <si>
-    <t>123</t>
   </si>
 </sst>
 </file>
@@ -68,7 +65,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -85,17 +82,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>420853.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/target/classes/score-table/Results.xlsx
+++ b/target/classes/score-table/Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>№</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t>Количество баллов</t>
+  </si>
+  <si>
+    <t>321</t>
   </si>
   <si>
     <t>123</t>
@@ -68,7 +71,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -93,6 +96,17 @@
         <v>3</v>
       </c>
       <c r="C2" t="n" s="0">
+        <v>589926.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n" s="0">
         <v>420853.0</v>
       </c>
     </row>
